--- a/analises/2023/analise_descritiva/dados/aon-uf.xlsx
+++ b/analises/2023/analise_descritiva/dados/aon-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -505,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,11 +539,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -574,13 +598,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -612,25 +654,43 @@
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>7</v>
@@ -660,27 +720,45 @@
         <v>15562.69255270254</v>
       </c>
       <c r="L3" s="3">
-        <v>72.63883144032484</v>
-      </c>
-      <c r="M3" s="1">
+        <v>75.00789620402684</v>
+      </c>
+      <c r="M3" s="3">
+        <v>20.8472391815489</v>
+      </c>
+      <c r="N3" s="3">
+        <v>51.16268912820382</v>
+      </c>
+      <c r="O3" s="3">
+        <v>98.18723839446352</v>
+      </c>
+      <c r="P3" s="1">
         <v>769</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>153.8</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>48.54070456843411</v>
+      </c>
+      <c r="S3" s="1">
+        <v>80</v>
+      </c>
+      <c r="T3" s="1">
+        <v>197</v>
+      </c>
+      <c r="U3">
         <v>2015</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -710,27 +788,45 @@
         <v>12904.8841260866</v>
       </c>
       <c r="L4" s="3">
-        <v>69.16365343052672</v>
-      </c>
-      <c r="M4" s="1">
+        <v>82.02288241017453</v>
+      </c>
+      <c r="M4" s="3">
+        <v>38.6351400527227</v>
+      </c>
+      <c r="N4" s="3">
+        <v>42.73625936921745</v>
+      </c>
+      <c r="O4" s="3">
+        <v>130.1524787825515</v>
+      </c>
+      <c r="P4" s="1">
         <v>495</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>123.75</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>75.23906343560283</v>
+      </c>
+      <c r="S4" s="1">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1">
+        <v>213</v>
+      </c>
+      <c r="U4">
         <v>2018</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
@@ -760,27 +856,45 @@
         <v>28456.51246193833</v>
       </c>
       <c r="L5" s="3">
-        <v>95.50962732859578</v>
-      </c>
-      <c r="M5" s="1">
+        <v>114.6991600834974</v>
+      </c>
+      <c r="M5" s="3">
+        <v>55.14906379653822</v>
+      </c>
+      <c r="N5" s="3">
+        <v>41.37030004989997</v>
+      </c>
+      <c r="O5" s="3">
+        <v>191.0754944146149</v>
+      </c>
+      <c r="P5" s="1">
         <v>1073</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>153.2857142857143</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>92.82010250248288</v>
+      </c>
+      <c r="S5" s="1">
+        <v>22</v>
+      </c>
+      <c r="T5" s="1">
+        <v>322</v>
+      </c>
+      <c r="U5">
         <v>2015</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -810,27 +924,45 @@
         <v>41422.60130243778</v>
       </c>
       <c r="L6" s="3">
-        <v>71.38657292738846</v>
-      </c>
-      <c r="M6" s="1">
+        <v>65.02962897515947</v>
+      </c>
+      <c r="M6" s="3">
+        <v>24.04267079438254</v>
+      </c>
+      <c r="N6" s="3">
+        <v>35.11549541571471</v>
+      </c>
+      <c r="O6" s="3">
+        <v>101.6852930675324</v>
+      </c>
+      <c r="P6" s="1">
         <v>1618</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>179.7777777777778</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>153.1100729685818</v>
+      </c>
+      <c r="S6" s="1">
+        <v>28</v>
+      </c>
+      <c r="T6" s="1">
+        <v>444</v>
+      </c>
+      <c r="U6">
         <v>2013</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -860,27 +992,45 @@
         <v>75796.32738733107</v>
       </c>
       <c r="L7" s="3">
-        <v>92.98191948624745</v>
-      </c>
-      <c r="M7" s="1">
+        <v>94.21880955963928</v>
+      </c>
+      <c r="M7" s="3">
+        <v>33.76666631125577</v>
+      </c>
+      <c r="N7" s="3">
+        <v>13.93896149503088</v>
+      </c>
+      <c r="O7" s="3">
+        <v>172.1696304862246</v>
+      </c>
+      <c r="P7" s="1">
         <v>5497</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>239</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>182.740750294459</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>748</v>
+      </c>
+      <c r="U7">
         <v>2012</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
@@ -910,27 +1060,45 @@
         <v>39851.59699603717</v>
       </c>
       <c r="L8" s="3">
-        <v>112.2443057692103</v>
-      </c>
-      <c r="M8" s="1">
+        <v>119.5186191657508</v>
+      </c>
+      <c r="M8" s="3">
+        <v>92.06255004070933</v>
+      </c>
+      <c r="N8" s="3">
+        <v>35.29658989882071</v>
+      </c>
+      <c r="O8" s="3">
+        <v>250.6168154577054</v>
+      </c>
+      <c r="P8" s="1">
         <v>649</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>162.25</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>184.5921179248995</v>
+      </c>
+      <c r="S8" s="1">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1">
+        <v>437</v>
+      </c>
+      <c r="U8">
         <v>2014</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>14</v>
@@ -960,27 +1128,45 @@
         <v>25867.99228157927</v>
       </c>
       <c r="L9" s="3">
-        <v>55.85601551500451</v>
-      </c>
-      <c r="M9" s="1">
+        <v>53.18253856371505</v>
+      </c>
+      <c r="M9" s="3">
+        <v>13.76223823977806</v>
+      </c>
+      <c r="N9" s="3">
+        <v>23.15006403629383</v>
+      </c>
+      <c r="O9" s="3">
+        <v>74.36240477530139</v>
+      </c>
+      <c r="P9" s="1">
         <v>1931</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>193.1</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>114.4032342200167</v>
+      </c>
+      <c r="S9" s="1">
+        <v>34</v>
+      </c>
+      <c r="T9" s="1">
+        <v>413</v>
+      </c>
+      <c r="U9">
         <v>2015</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1012,25 +1198,43 @@
       <c r="L10" s="3">
         <v>52.78244028225377</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>52.78244028225377</v>
+      </c>
+      <c r="O10" s="3">
+        <v>52.78244028225377</v>
+      </c>
+      <c r="P10" s="1">
         <v>37</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>37</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>37</v>
+      </c>
+      <c r="T10" s="1">
+        <v>37</v>
+      </c>
+      <c r="U10">
         <v>2022</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>115</v>
@@ -1060,27 +1264,45 @@
         <v>136747.5985390203</v>
       </c>
       <c r="L11" s="3">
-        <v>84.51296022186848</v>
-      </c>
-      <c r="M11" s="1">
+        <v>86.81635122392562</v>
+      </c>
+      <c r="M11" s="3">
+        <v>37.51123541785305</v>
+      </c>
+      <c r="N11" s="3">
+        <v>36.80839302979295</v>
+      </c>
+      <c r="O11" s="3">
+        <v>258.3988976388868</v>
+      </c>
+      <c r="P11" s="1">
         <v>21560</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>321.7910447761194</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>276.7822433278898</v>
+      </c>
+      <c r="S11" s="1">
+        <v>21</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1361</v>
+      </c>
+      <c r="U11">
         <v>2011</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1112,25 +1334,43 @@
       <c r="L12" s="3">
         <v>71.24263946639917</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>71.24263946639917</v>
+      </c>
+      <c r="O12" s="3">
+        <v>71.24263946639917</v>
+      </c>
+      <c r="P12" s="1">
         <v>544</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>544</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>544</v>
+      </c>
+      <c r="T12" s="1">
+        <v>544</v>
+      </c>
+      <c r="U12">
         <v>2015</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1160,27 +1400,45 @@
         <v>10341.29687648086</v>
       </c>
       <c r="L13" s="3">
-        <v>67.93158644297183</v>
-      </c>
-      <c r="M13" s="1">
+        <v>67.44874008606634</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2.766112543869335</v>
+      </c>
+      <c r="N13" s="3">
+        <v>65.49280314877116</v>
+      </c>
+      <c r="O13" s="3">
+        <v>69.40467702336151</v>
+      </c>
+      <c r="P13" s="1">
         <v>239</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>119.5</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>41.71930009000631</v>
+      </c>
+      <c r="S13" s="1">
+        <v>90</v>
+      </c>
+      <c r="T13" s="1">
+        <v>149</v>
+      </c>
+      <c r="U13">
         <v>2016</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -1210,27 +1468,45 @@
         <v>34218.59792070687</v>
       </c>
       <c r="L14" s="3">
-        <v>72.42130976357548</v>
-      </c>
-      <c r="M14" s="1">
+        <v>97.00241430883207</v>
+      </c>
+      <c r="M14" s="3">
+        <v>65.2637200632923</v>
+      </c>
+      <c r="N14" s="3">
+        <v>47.75018123333633</v>
+      </c>
+      <c r="O14" s="3">
+        <v>192.112881227726</v>
+      </c>
+      <c r="P14" s="1">
         <v>1698</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>424.5</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>242.6650640972724</v>
+      </c>
+      <c r="S14" s="1">
+        <v>155</v>
+      </c>
+      <c r="T14" s="1">
+        <v>697</v>
+      </c>
+      <c r="U14">
         <v>2014</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>20</v>
@@ -1260,27 +1536,45 @@
         <v>56551.79581211559</v>
       </c>
       <c r="L15" s="3">
-        <v>74.91086123718691</v>
-      </c>
-      <c r="M15" s="1">
+        <v>76.18732770234899</v>
+      </c>
+      <c r="M15" s="3">
+        <v>20.8374175035866</v>
+      </c>
+      <c r="N15" s="3">
+        <v>50.22252986180061</v>
+      </c>
+      <c r="O15" s="3">
+        <v>129.6052565067895</v>
+      </c>
+      <c r="P15" s="1">
         <v>3894</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>389.4</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>213.73878138201</v>
+      </c>
+      <c r="S15" s="1">
+        <v>136</v>
+      </c>
+      <c r="T15" s="1">
+        <v>781</v>
+      </c>
+      <c r="U15">
         <v>2014</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>41</v>
@@ -1310,27 +1604,45 @@
         <v>42305.24595130414</v>
       </c>
       <c r="L16" s="3">
-        <v>81.12766312510587</v>
-      </c>
-      <c r="M16" s="1">
+        <v>80.88955147226123</v>
+      </c>
+      <c r="M16" s="3">
+        <v>25.31415207393677</v>
+      </c>
+      <c r="N16" s="3">
+        <v>50.7601115653299</v>
+      </c>
+      <c r="O16" s="3">
+        <v>178.866771127061</v>
+      </c>
+      <c r="P16" s="1">
         <v>4348</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>181.1666666666667</v>
       </c>
-      <c r="O16">
+      <c r="R16" s="1">
+        <v>136.8730502475121</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>470</v>
+      </c>
+      <c r="U16">
         <v>2013</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>20</v>
@@ -1360,27 +1672,45 @@
         <v>39440.42378260842</v>
       </c>
       <c r="L17" s="3">
-        <v>72.24040738498717</v>
-      </c>
-      <c r="M17" s="1">
+        <v>75.39208810014507</v>
+      </c>
+      <c r="M17" s="3">
+        <v>19.7124148016013</v>
+      </c>
+      <c r="N17" s="3">
+        <v>49.16664277313876</v>
+      </c>
+      <c r="O17" s="3">
+        <v>106.3800257234519</v>
+      </c>
+      <c r="P17" s="1">
         <v>3100</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>238.4615384615385</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>132.1511857587207</v>
+      </c>
+      <c r="S17" s="1">
+        <v>48</v>
+      </c>
+      <c r="T17" s="1">
+        <v>425</v>
+      </c>
+      <c r="U17">
         <v>2013</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>81</v>
@@ -1410,27 +1740,45 @@
         <v>537544.5528256212</v>
       </c>
       <c r="L18" s="3">
-        <v>81.23123121034725</v>
-      </c>
-      <c r="M18" s="1">
+        <v>85.73648343843502</v>
+      </c>
+      <c r="M18" s="3">
+        <v>43.07480759857638</v>
+      </c>
+      <c r="N18" s="3">
+        <v>43.65086864893672</v>
+      </c>
+      <c r="O18" s="3">
+        <v>305.2480444061168</v>
+      </c>
+      <c r="P18" s="1">
         <v>22855</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>476.1458333333333</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>890.0839546723939</v>
+      </c>
+      <c r="S18" s="1">
+        <v>11</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5879</v>
+      </c>
+      <c r="U18">
         <v>2012</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>152</v>
@@ -1460,27 +1808,45 @@
         <v>154365.9837040891</v>
       </c>
       <c r="L19" s="3">
-        <v>86.86464629097692</v>
-      </c>
-      <c r="M19" s="1">
+        <v>91.19584230695237</v>
+      </c>
+      <c r="M19" s="3">
+        <v>52.1994794695089</v>
+      </c>
+      <c r="N19" s="3">
+        <v>28.93621211433578</v>
+      </c>
+      <c r="O19" s="3">
+        <v>362.0414364166904</v>
+      </c>
+      <c r="P19" s="1">
         <v>22939</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>244.031914893617</v>
       </c>
-      <c r="O19">
+      <c r="R19" s="1">
+        <v>265.6660306300042</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1815</v>
+      </c>
+      <c r="U19">
         <v>2012</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1510,27 +1876,45 @@
         <v>23993.89163144313</v>
       </c>
       <c r="L20" s="3">
-        <v>92.89347465855401</v>
-      </c>
-      <c r="M20" s="1">
+        <v>102.1528019237971</v>
+      </c>
+      <c r="M20" s="3">
+        <v>45.12208498703536</v>
+      </c>
+      <c r="N20" s="3">
+        <v>51.82186815577705</v>
+      </c>
+      <c r="O20" s="3">
+        <v>194.2230576381307</v>
+      </c>
+      <c r="P20" s="1">
         <v>1717</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>156.0909090909091</v>
       </c>
-      <c r="O20">
+      <c r="R20" s="1">
+        <v>83.57326671305189</v>
+      </c>
+      <c r="S20" s="1">
+        <v>75</v>
+      </c>
+      <c r="T20" s="1">
+        <v>323</v>
+      </c>
+      <c r="U20">
         <v>2013</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1562,25 +1946,43 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>102</v>
@@ -1610,27 +2012,45 @@
         <v>85108.67952264159</v>
       </c>
       <c r="L22" s="3">
-        <v>82.90726758980419</v>
-      </c>
-      <c r="M22" s="1">
+        <v>86.75000391605847</v>
+      </c>
+      <c r="M22" s="3">
+        <v>36.02054142321907</v>
+      </c>
+      <c r="N22" s="3">
+        <v>30.34716172224384</v>
+      </c>
+      <c r="O22" s="3">
+        <v>185.9579322823807</v>
+      </c>
+      <c r="P22" s="1">
         <v>18775</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>280.2238805970149</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>236.5302095444407</v>
+      </c>
+      <c r="S22" s="1">
+        <v>13</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1463</v>
+      </c>
+      <c r="U22">
         <v>2012</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>26</v>
@@ -1660,27 +2080,45 @@
         <v>82775.69729329311</v>
       </c>
       <c r="L23" s="3">
-        <v>106.1211981629064</v>
-      </c>
-      <c r="M23" s="1">
+        <v>151.8334512722465</v>
+      </c>
+      <c r="M23" s="3">
+        <v>186.3390150198467</v>
+      </c>
+      <c r="N23" s="3">
+        <v>56.70640251384852</v>
+      </c>
+      <c r="O23" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="P23" s="1">
         <v>3590</v>
       </c>
-      <c r="N23" s="1">
+      <c r="Q23" s="1">
         <v>256.4285714285714</v>
       </c>
-      <c r="O23">
+      <c r="R23" s="1">
+        <v>286.5813656204449</v>
+      </c>
+      <c r="S23" s="1">
+        <v>55</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1113</v>
+      </c>
+      <c r="U23">
         <v>2013</v>
       </c>
-      <c r="P23">
+      <c r="V23">
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1712,25 +2150,43 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>609</v>
@@ -1760,27 +2216,45 @@
         <v>679297.6600721752</v>
       </c>
       <c r="L25" s="3">
-        <v>97.43054488687412</v>
-      </c>
-      <c r="M25" s="1">
+        <v>94.84403031004297</v>
+      </c>
+      <c r="M25" s="3">
+        <v>43.75283316828958</v>
+      </c>
+      <c r="N25" s="3">
+        <v>21.61624650544615</v>
+      </c>
+      <c r="O25" s="3">
+        <v>355.4191230542959</v>
+      </c>
+      <c r="P25" s="1">
         <v>146225</v>
       </c>
-      <c r="N25" s="1">
+      <c r="Q25" s="1">
         <v>354.9150485436893</v>
       </c>
-      <c r="O25">
+      <c r="R25" s="1">
+        <v>461.7078947923924</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>6494</v>
+      </c>
+      <c r="U25">
         <v>2012</v>
       </c>
-      <c r="P25">
+      <c r="V25">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1812,16 +2286,34 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>0</v>
       </c>
     </row>

--- a/analises/2023/analise_descritiva/dados/aon-uf.xlsx
+++ b/analises/2023/analise_descritiva/dados/aon-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -523,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,14 +557,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -616,13 +636,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -663,34 +698,49 @@
       <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>7</v>
@@ -705,60 +755,75 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G3" s="3">
-        <v>55859.2613776098</v>
+        <v>48574.16306479134</v>
       </c>
       <c r="H3" s="3">
+        <v>9714.832612958267</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3182.288959240377</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5799.079237651673</v>
+      </c>
+      <c r="K3" s="3">
+        <v>14175.52702537076</v>
+      </c>
+      <c r="L3" s="3">
+        <v>55859.26137760981</v>
+      </c>
+      <c r="M3" s="3">
         <v>11171.85227552196</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>3760.916147102339</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>6855.800343179311</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>15562.69255270254</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>75.00789620402684</v>
       </c>
-      <c r="M3" s="3">
-        <v>20.8472391815489</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="R3" s="3">
+        <v>20.84723918154889</v>
+      </c>
+      <c r="S3" s="3">
         <v>51.16268912820382</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>98.18723839446352</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>769</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>153.8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>48.54070456843411</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>80</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>197</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2015</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -773,60 +838,75 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G4" s="3">
-        <v>34236.00844811073</v>
+        <v>27588.90217049156</v>
       </c>
       <c r="H4" s="3">
-        <v>8559.002112027682</v>
+        <v>6897.225542622891</v>
       </c>
       <c r="I4" s="3">
+        <v>4267.705654432352</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3231.491743287139</v>
+      </c>
+      <c r="K4" s="3">
+        <v>11569.17077318277</v>
+      </c>
+      <c r="L4" s="3">
+        <v>34236.00844811072</v>
+      </c>
+      <c r="M4" s="3">
+        <v>8559.00211202768</v>
+      </c>
+      <c r="N4" s="3">
         <v>4714.557407418181</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>3774.421884693993</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>12904.8841260866</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>82.02288241017453</v>
       </c>
-      <c r="M4" s="3">
-        <v>38.6351400527227</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="R4" s="3">
+        <v>38.63514005272269</v>
+      </c>
+      <c r="S4" s="3">
         <v>42.73625936921745</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>130.1524787825515</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>495</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>123.75</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>75.23906343560283</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>29</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>213</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2018</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
@@ -841,60 +921,75 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G5" s="3">
+        <v>84457.51477450714</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12065.35925350102</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7645.526714823294</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3558.116824649419</v>
+      </c>
+      <c r="K5" s="3">
+        <v>26201.50705488747</v>
+      </c>
+      <c r="L5" s="3">
         <v>102481.8301235833</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>14640.26144622618</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>8108.092667296107</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>4203.660877121528</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>28456.51246193833</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>114.6991600834974</v>
       </c>
-      <c r="M5" s="3">
-        <v>55.14906379653822</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
+        <v>55.14906379653824</v>
+      </c>
+      <c r="S5" s="3">
         <v>41.37030004989997</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>191.0754944146149</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>1073</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>153.2857142857143</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>92.82010250248288</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>22</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>322</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2015</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -909,60 +1004,75 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="G6" s="3">
+        <v>71775.24022898567</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7975.026692109519</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9559.927270784508</v>
+      </c>
+      <c r="J6" s="3">
+        <v>601.9799214122522</v>
+      </c>
+      <c r="K6" s="3">
+        <v>31271.51882916916</v>
+      </c>
+      <c r="L6" s="3">
         <v>115503.4749965145</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>12833.71944405717</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>13733.42549497162</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>1334.388825797159</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>41422.60130243778</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
         <v>65.02962897515947</v>
       </c>
-      <c r="M6" s="3">
-        <v>24.04267079438254</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="R6" s="3">
+        <v>24.04267079438255</v>
+      </c>
+      <c r="S6" s="3">
         <v>35.11549541571471</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>101.6852930675324</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>1618</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>179.7777777777778</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>153.1100729685818</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>28</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>444</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2013</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>40</v>
@@ -977,60 +1087,75 @@
         <v>0.575</v>
       </c>
       <c r="G7" s="3">
-        <v>511121.6114159022</v>
+        <v>379739.6560966877</v>
       </c>
       <c r="H7" s="3">
+        <v>16510.41983029077</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10943.79825260903</v>
+      </c>
+      <c r="J7" s="3">
+        <v>31.89582864100442</v>
+      </c>
+      <c r="K7" s="3">
+        <v>41808.07055676392</v>
+      </c>
+      <c r="L7" s="3">
+        <v>511121.6114159023</v>
+      </c>
+      <c r="M7" s="3">
         <v>22222.67875721314</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>16473.46938218383</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>41.81688448509265</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>75796.32738733107</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>94.21880955963928</v>
       </c>
-      <c r="M7" s="3">
-        <v>33.76666631125577</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="R7" s="3">
+        <v>33.76666631125576</v>
+      </c>
+      <c r="S7" s="3">
         <v>13.93896149503088</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>172.1696304862246</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>5497</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>239</v>
       </c>
-      <c r="R7" s="1">
+      <c r="W7" s="1">
         <v>182.740750294459</v>
       </c>
-      <c r="S7" s="1">
+      <c r="X7" s="1">
         <v>3</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>748</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2012</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
@@ -1045,60 +1170,75 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="G8" s="3">
+        <v>56472.00637005857</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14118.00159251464</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11499.51150292066</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1331.946788634744</v>
+      </c>
+      <c r="K8" s="3">
+        <v>25588.54308208371</v>
+      </c>
+      <c r="L8" s="3">
         <v>72846.5544442175</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>18211.63861105438</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>17231.5614090988</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>1411.863595952828</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>39851.59699603717</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>119.5186191657508</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>92.06255004070933</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>35.29658989882071</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>250.6168154577054</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>649</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>162.25</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <v>184.5921179248995</v>
       </c>
-      <c r="S8" s="1">
+      <c r="X8" s="1">
         <v>40</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>437</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2014</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>14</v>
@@ -1113,60 +1253,75 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G9" s="3">
+        <v>73391.81718239328</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7339.181718239328</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4193.852416414849</v>
+      </c>
+      <c r="J9" s="3">
+        <v>125.9363483574384</v>
+      </c>
+      <c r="K9" s="3">
+        <v>14518.07105252567</v>
+      </c>
+      <c r="L9" s="3">
         <v>107857.9659594737</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>10785.79659594737</v>
       </c>
-      <c r="I9" s="3">
-        <v>7069.017817675312</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
+        <v>7069.017817675311</v>
+      </c>
+      <c r="O9" s="3">
         <v>787.1021772339901</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>25867.99228157927</v>
       </c>
-      <c r="L9" s="3">
-        <v>53.18253856371505</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
+        <v>53.18253856371503</v>
+      </c>
+      <c r="R9" s="3">
         <v>13.76223823977806</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>23.15006403629383</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>74.36240477530139</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>1931</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>193.1</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <v>114.4032342200167</v>
       </c>
-      <c r="S9" s="1">
+      <c r="X9" s="1">
         <v>34</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>413</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2015</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -1181,60 +1336,75 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10" s="3">
+        <v>1583.473208467613</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1583.473208467613</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1583.473208467613</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1583.473208467613</v>
+      </c>
+      <c r="L10" s="3">
         <v>1952.95029044339</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>1952.95029044339</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>1952.95029044339</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>1952.95029044339</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>52.78244028225377</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>52.78244028225377</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>52.78244028225377</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>37</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>37</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
         <v>37</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>37</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2022</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>115</v>
@@ -1249,60 +1419,75 @@
         <v>0.5826086956521739</v>
       </c>
       <c r="G11" s="3">
-        <v>1822099.422383484</v>
+        <v>1127892.606177732</v>
       </c>
       <c r="H11" s="3">
+        <v>16834.21800265271</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12968.99773451865</v>
+      </c>
+      <c r="J11" s="3">
+        <v>46.54040140521144</v>
+      </c>
+      <c r="K11" s="3">
+        <v>65717.73996450164</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1822099.422383485</v>
+      </c>
+      <c r="M11" s="3">
         <v>27195.51376691768</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>26573.24720137915</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>1204.083718406624</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>136747.5985390203</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>86.81635122392562</v>
       </c>
-      <c r="M11" s="3">
-        <v>37.51123541785305</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="R11" s="3">
+        <v>37.51123541785304</v>
+      </c>
+      <c r="S11" s="3">
         <v>36.80839302979295</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>258.3988976388868</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>21560</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>321.7910447761194</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>276.7822433278898</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>21</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>1361</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2011</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1317,60 +1502,75 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="3">
+        <v>11084.45234271902</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11084.45234271902</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11084.45234271902</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11084.45234271902</v>
+      </c>
+      <c r="L12" s="3">
         <v>38755.99586972115</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="3">
         <v>38755.99586972115</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>38755.99586972115</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>38755.99586972115</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>71.24263946639917</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>71.24263946639917</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>71.24263946639917</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <v>544</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="1">
         <v>544</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
         <v>544</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <v>544</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>2015</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1385,60 +1585,75 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
+        <v>11230.86675731149</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5615.433378655747</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1722.118525061004</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4397.711691578135</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6833.155065733358</v>
+      </c>
+      <c r="L13" s="3">
         <v>16235.64915987027</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>8117.824579935134</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>3144.464677335824</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>5894.352283389404</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>10341.29687648086</v>
       </c>
-      <c r="L13" s="3">
+      <c r="Q13" s="3">
         <v>67.44874008606634</v>
       </c>
-      <c r="M13" s="3">
+      <c r="R13" s="3">
         <v>2.766112543869335</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>65.49280314877116</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>69.40467702336151</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>239</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>119.5</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>41.71930009000631</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>90</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>149</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2016</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -1453,60 +1668,75 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14" s="3">
+        <v>62726.67021979182</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15681.66755494796</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10103.74822545336</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4685.232822716078</v>
+      </c>
+      <c r="K14" s="3">
+        <v>25410.31111926631</v>
+      </c>
+      <c r="L14" s="3">
         <v>122971.3839785512</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>30742.84599463779</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>3871.0979488551</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>25693.41314791135</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>34218.59792070687</v>
       </c>
-      <c r="L14" s="3">
-        <v>97.00241430883207</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="Q14" s="3">
+        <v>97.00241430883206</v>
+      </c>
+      <c r="R14" s="3">
         <v>65.2637200632923</v>
       </c>
-      <c r="N14" s="3">
+      <c r="S14" s="3">
         <v>47.75018123333633</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>192.112881227726</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <v>1698</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>424.5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <v>242.6650640972724</v>
       </c>
-      <c r="S14" s="1">
+      <c r="X14" s="1">
         <v>155</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>697</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2014</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>20</v>
@@ -1521,60 +1751,75 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="3">
-        <v>291702.8936576058</v>
+        <v>226667.4377149841</v>
       </c>
       <c r="H15" s="3">
-        <v>29170.28936576058</v>
+        <v>22666.7437714984</v>
       </c>
       <c r="I15" s="3">
-        <v>16041.93083749389</v>
+        <v>11772.73987222062</v>
       </c>
       <c r="J15" s="3">
+        <v>8447.343329204083</v>
+      </c>
+      <c r="K15" s="3">
+        <v>39165.09263383676</v>
+      </c>
+      <c r="L15" s="3">
+        <v>291702.8936576059</v>
+      </c>
+      <c r="M15" s="3">
+        <v>29170.28936576059</v>
+      </c>
+      <c r="N15" s="3">
+        <v>16041.93083749388</v>
+      </c>
+      <c r="O15" s="3">
         <v>9446.9456231599</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>56551.79581211559</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>76.18732770234899</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>20.8374175035866</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>50.22252986180061</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>129.6052565067895</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>3894</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>389.4</v>
       </c>
-      <c r="R15" s="1">
+      <c r="W15" s="1">
         <v>213.73878138201</v>
       </c>
-      <c r="S15" s="1">
+      <c r="X15" s="1">
         <v>136</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>781</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2014</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>41</v>
@@ -1589,60 +1834,75 @@
         <v>0.5853658536585366</v>
       </c>
       <c r="G16" s="3">
+        <v>259175.1565938112</v>
+      </c>
+      <c r="H16" s="3">
+        <v>10798.96485807547</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8499.323063867867</v>
+      </c>
+      <c r="J16" s="3">
+        <v>46.55761904502517</v>
+      </c>
+      <c r="K16" s="3">
+        <v>33931.19090553456</v>
+      </c>
+      <c r="L16" s="3">
         <v>352743.0792679603</v>
       </c>
-      <c r="H16" s="3">
+      <c r="M16" s="3">
         <v>14697.62830283168</v>
       </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
         <v>11661.97497690474</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>54.53892516702949</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>42305.24595130414</v>
       </c>
-      <c r="L16" s="3">
-        <v>80.88955147226123</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="Q16" s="3">
+        <v>80.88955147226125</v>
+      </c>
+      <c r="R16" s="3">
         <v>25.31415207393677</v>
       </c>
-      <c r="N16" s="3">
+      <c r="S16" s="3">
         <v>50.7601115653299</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>178.866771127061</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <v>4348</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="V16" s="1">
         <v>181.1666666666667</v>
       </c>
-      <c r="R16" s="1">
+      <c r="W16" s="1">
         <v>136.8730502475121</v>
       </c>
-      <c r="S16" s="1">
+      <c r="X16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <v>470</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>2013</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>20</v>
@@ -1657,60 +1917,75 @@
         <v>0.65</v>
       </c>
       <c r="G17" s="3">
+        <v>135622.1183812107</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10432.47064470852</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6592.182141272029</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2158.077831645403</v>
+      </c>
+      <c r="K17" s="3">
+        <v>24435.29612147114</v>
+      </c>
+      <c r="L17" s="3">
         <v>223945.2628934602</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>17226.55868411232</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>9924.297421514813</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>5066.015766157635</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>39440.42378260842</v>
       </c>
-      <c r="L17" s="3">
-        <v>75.39208810014507</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
+        <v>75.39208810014506</v>
+      </c>
+      <c r="R17" s="3">
         <v>19.7124148016013</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>49.16664277313876</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>106.3800257234519</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>3100</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>238.4615384615385</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <v>132.1511857587207</v>
       </c>
-      <c r="S17" s="1">
+      <c r="X17" s="1">
         <v>48</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>425</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2013</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>81</v>
@@ -1725,60 +2000,75 @@
         <v>0.5925925925925926</v>
       </c>
       <c r="G18" s="3">
-        <v>1856539.789312486</v>
+        <v>840102.5007093812</v>
       </c>
       <c r="H18" s="3">
-        <v>38677.91227734346</v>
+        <v>17502.13543144544</v>
       </c>
       <c r="I18" s="3">
-        <v>78534.95893067503</v>
+        <v>11911.06819008125</v>
       </c>
       <c r="J18" s="3">
+        <v>33.25544217501798</v>
+      </c>
+      <c r="K18" s="3">
+        <v>45587.36788479274</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1856539.789312487</v>
+      </c>
+      <c r="M18" s="3">
+        <v>38677.91227734347</v>
+      </c>
+      <c r="N18" s="3">
+        <v>78534.95893067501</v>
+      </c>
+      <c r="O18" s="3">
         <v>792.1446326089283</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>537544.5528256212</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>85.73648343843502</v>
       </c>
-      <c r="M18" s="3">
-        <v>43.07480759857638</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
+        <v>43.07480759857637</v>
+      </c>
+      <c r="S18" s="3">
         <v>43.65086864893672</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>305.2480444061168</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>22855</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>476.1458333333333</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>890.0839546723939</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>11</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>5879</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2012</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>152</v>
@@ -1793,60 +2083,75 @@
         <v>0.618421052631579</v>
       </c>
       <c r="G19" s="3">
+        <v>1266827.03907684</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13476.88339443447</v>
+      </c>
+      <c r="I19" s="3">
+        <v>11543.02008615277</v>
+      </c>
+      <c r="J19" s="3">
+        <v>36.54227329736327</v>
+      </c>
+      <c r="K19" s="3">
+        <v>63433.80678179936</v>
+      </c>
+      <c r="L19" s="3">
         <v>1992588.121268719</v>
       </c>
-      <c r="H19" s="3">
+      <c r="M19" s="3">
         <v>21197.74597094382</v>
       </c>
-      <c r="I19" s="3">
-        <v>24242.49040548317</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="N19" s="3">
+        <v>24242.49040548318</v>
+      </c>
+      <c r="O19" s="3">
         <v>143.2012350929583</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="3">
         <v>154365.9837040891</v>
       </c>
-      <c r="L19" s="3">
+      <c r="Q19" s="3">
         <v>91.19584230695237</v>
       </c>
-      <c r="M19" s="3">
-        <v>52.1994794695089</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="R19" s="3">
+        <v>52.19947946950889</v>
+      </c>
+      <c r="S19" s="3">
         <v>28.93621211433578</v>
       </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
         <v>362.0414364166904</v>
       </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <v>22939</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="V19" s="1">
         <v>244.031914893617</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <v>265.6660306300042</v>
       </c>
-      <c r="S19" s="1">
+      <c r="X19" s="1">
         <v>3</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <v>1815</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>2012</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1861,60 +2166,75 @@
         <v>0.55</v>
       </c>
       <c r="G20" s="3">
-        <v>159498.0959887372</v>
+        <v>125865.3923104326</v>
       </c>
       <c r="H20" s="3">
-        <v>14499.82690806702</v>
+        <v>11442.30839185751</v>
       </c>
       <c r="I20" s="3">
-        <v>5851.099676382971</v>
+        <v>5126.924314936904</v>
       </c>
       <c r="J20" s="3">
+        <v>3356.277006745836</v>
+      </c>
+      <c r="K20" s="3">
+        <v>19376.7113401665</v>
+      </c>
+      <c r="L20" s="3">
+        <v>159498.0959887373</v>
+      </c>
+      <c r="M20" s="3">
+        <v>14499.82690806703</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5851.099676382972</v>
+      </c>
+      <c r="O20" s="3">
         <v>3938.461979839056</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>23993.89163144313</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>102.1528019237971</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>45.12208498703536</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>51.82186815577705</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>194.2230576381307</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <v>1717</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="V20" s="1">
         <v>156.0909090909091</v>
       </c>
-      <c r="R20" s="1">
-        <v>83.57326671305189</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="W20" s="1">
+        <v>83.57326671305191</v>
+      </c>
+      <c r="X20" s="1">
         <v>75</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <v>323</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>2013</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1955,34 +2275,49 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>102</v>
@@ -1997,60 +2332,75 @@
         <v>0.6568627450980392</v>
       </c>
       <c r="G22" s="3">
+        <v>945832.0701634795</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14116.89656960417</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10949.19397952375</v>
+      </c>
+      <c r="J22" s="3">
+        <v>125.9363483574384</v>
+      </c>
+      <c r="K22" s="3">
+        <v>50030.55629343074</v>
+      </c>
+      <c r="L22" s="3">
         <v>1556583.948998574</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>23232.59625371006</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>18896.22892665214</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>1496.107461794161</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>85108.67952264159</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>86.75000391605847</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>36.02054142321907</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>30.34716172224384</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>185.9579322823807</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>18775</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>280.2238805970149</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>236.5302095444407</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>13</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>1463</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2012</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>26</v>
@@ -2065,60 +2415,75 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="G23" s="3">
+        <v>278860.8958950862</v>
+      </c>
+      <c r="H23" s="3">
+        <v>19918.63542107759</v>
+      </c>
+      <c r="I23" s="3">
+        <v>16261.00609942501</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5055.210766500127</v>
+      </c>
+      <c r="K23" s="3">
+        <v>62551.6000431568</v>
+      </c>
+      <c r="L23" s="3">
         <v>380975.101404834</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>27212.50724320242</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>24288.70743540987</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>5156.314981830129</v>
       </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>82775.69729329311</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="3">
         <v>151.8334512722465</v>
       </c>
-      <c r="M23" s="3">
-        <v>186.3390150198467</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
+        <v>186.3390150198468</v>
+      </c>
+      <c r="S23" s="3">
         <v>56.70640251384852</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="P23" s="1">
+      <c r="U23" s="1">
         <v>3590</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="V23" s="1">
         <v>256.4285714285714</v>
       </c>
-      <c r="R23" s="1">
+      <c r="W23" s="1">
         <v>286.5813656204449</v>
       </c>
-      <c r="S23" s="1">
+      <c r="X23" s="1">
         <v>55</v>
       </c>
-      <c r="T23" s="1">
+      <c r="Y23" s="1">
         <v>1113</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>2013</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2159,34 +2524,49 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
         <v>609</v>
@@ -2201,60 +2581,75 @@
         <v>0.6765188834154351</v>
       </c>
       <c r="G25" s="3">
+        <v>7937572.620753486</v>
+      </c>
+      <c r="H25" s="3">
+        <v>19265.9529629939</v>
+      </c>
+      <c r="I25" s="3">
+        <v>20983.24576011891</v>
+      </c>
+      <c r="J25" s="3">
+        <v>37.27723939925197</v>
+      </c>
+      <c r="K25" s="3">
+        <v>189313.7035611726</v>
+      </c>
+      <c r="L25" s="3">
         <v>14246781.42608317</v>
       </c>
-      <c r="H25" s="3">
+      <c r="M25" s="3">
         <v>34579.56656816303</v>
       </c>
-      <c r="I25" s="3">
-        <v>53785.60482149058</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="N25" s="3">
+        <v>53785.60482149057</v>
+      </c>
+      <c r="O25" s="3">
         <v>94.898114598278</v>
       </c>
-      <c r="K25" s="3">
+      <c r="P25" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="L25" s="3">
+      <c r="Q25" s="3">
         <v>94.84403031004297</v>
       </c>
-      <c r="M25" s="3">
+      <c r="R25" s="3">
         <v>43.75283316828958</v>
       </c>
-      <c r="N25" s="3">
+      <c r="S25" s="3">
         <v>21.61624650544615</v>
       </c>
-      <c r="O25" s="3">
+      <c r="T25" s="3">
         <v>355.4191230542959</v>
       </c>
-      <c r="P25" s="1">
+      <c r="U25" s="1">
         <v>146225</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="V25" s="1">
         <v>354.9150485436893</v>
       </c>
-      <c r="R25" s="1">
+      <c r="W25" s="1">
         <v>461.7078947923924</v>
       </c>
-      <c r="S25" s="1">
+      <c r="X25" s="1">
         <v>1</v>
       </c>
-      <c r="T25" s="1">
+      <c r="Y25" s="1">
         <v>6494</v>
       </c>
-      <c r="U25">
+      <c r="Z25">
         <v>2012</v>
       </c>
-      <c r="V25">
+      <c r="AA25">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2295,25 +2690,40 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>0</v>
       </c>
     </row>
